--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>100.9400029276935</v>
+        <v>54.87035825944199</v>
       </c>
       <c r="R2">
-        <v>100.9400029276935</v>
+        <v>493.833224334978</v>
       </c>
       <c r="S2">
-        <v>0.01092243225116173</v>
+        <v>0.002838206434077072</v>
       </c>
       <c r="T2">
-        <v>0.01092243225116173</v>
+        <v>0.00295730788113146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>153.3956879072298</v>
+        <v>35.47704874144934</v>
       </c>
       <c r="R3">
-        <v>153.3956879072298</v>
+        <v>319.293438673044</v>
       </c>
       <c r="S3">
-        <v>0.01659851357431846</v>
+        <v>0.001835074367911944</v>
       </c>
       <c r="T3">
-        <v>0.01659851357431846</v>
+        <v>0.001912080751255514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>8.749203378621049</v>
+        <v>2.086970739327222</v>
       </c>
       <c r="R4">
-        <v>8.749203378621049</v>
+        <v>18.782736653945</v>
       </c>
       <c r="S4">
-        <v>0.0009467265542193236</v>
+        <v>0.0001079499745943401</v>
       </c>
       <c r="T4">
-        <v>0.0009467265542193236</v>
+        <v>0.0001124799474776731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>16.02739696039683</v>
+        <v>4.102124720823555</v>
       </c>
       <c r="R5">
-        <v>16.02739696039683</v>
+        <v>36.919122487412</v>
       </c>
       <c r="S5">
-        <v>0.001734279298444339</v>
+        <v>0.0002121851787622432</v>
       </c>
       <c r="T5">
-        <v>0.001734279298444339</v>
+        <v>0.0002210892392740695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H6">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I6">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J6">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>38.51593060814669</v>
+        <v>8.708175072428332</v>
       </c>
       <c r="R6">
-        <v>38.51593060814669</v>
+        <v>52.24905043456999</v>
       </c>
       <c r="S6">
-        <v>0.004167699925264321</v>
+        <v>0.0004504362519882518</v>
       </c>
       <c r="T6">
-        <v>0.004167699925264321</v>
+        <v>0.0003128921283898408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>1367.39327272747</v>
+        <v>289.476021895656</v>
       </c>
       <c r="R7">
-        <v>1367.39327272747</v>
+        <v>2605.284197060904</v>
       </c>
       <c r="S7">
-        <v>0.1479617589545614</v>
+        <v>0.01497334323881343</v>
       </c>
       <c r="T7">
-        <v>0.1479617589545614</v>
+        <v>0.01560167908696487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>2077.989158173501</v>
+        <v>187.1639855113547</v>
       </c>
       <c r="R8">
-        <v>2077.989158173501</v>
+        <v>1684.475869602192</v>
       </c>
       <c r="S8">
-        <v>0.2248533301020114</v>
+        <v>0.009681183880632403</v>
       </c>
       <c r="T8">
-        <v>0.2248533301020114</v>
+        <v>0.01008744150711752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>118.5219090019324</v>
+        <v>11.01009737491778</v>
       </c>
       <c r="R9">
-        <v>118.5219090019324</v>
+        <v>99.09087637426001</v>
       </c>
       <c r="S9">
-        <v>0.01282492058455048</v>
+        <v>0.0005695047417323807</v>
       </c>
       <c r="T9">
-        <v>0.01282492058455048</v>
+        <v>0.0005934032284774855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J10">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>217.1166450101877</v>
+        <v>21.64131569706845</v>
       </c>
       <c r="R10">
-        <v>217.1166450101877</v>
+        <v>194.771841273616</v>
       </c>
       <c r="S10">
-        <v>0.02349357813494462</v>
+        <v>0.001119411707918698</v>
       </c>
       <c r="T10">
-        <v>0.02349357813494462</v>
+        <v>0.001166386287590559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J11">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>521.7596877240479</v>
+        <v>45.94115945112667</v>
       </c>
       <c r="R11">
-        <v>521.7596877240479</v>
+        <v>275.64695670676</v>
       </c>
       <c r="S11">
-        <v>0.05645814023440741</v>
+        <v>0.002376337579693332</v>
       </c>
       <c r="T11">
-        <v>0.05645814023440741</v>
+        <v>0.001650704888429811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>1443.191893913328</v>
+        <v>5453.338060547808</v>
       </c>
       <c r="R12">
-        <v>1443.191893913328</v>
+        <v>49080.04254493027</v>
       </c>
       <c r="S12">
-        <v>0.1561637133890888</v>
+        <v>0.2820776036755837</v>
       </c>
       <c r="T12">
-        <v>0.1561637133890888</v>
+        <v>0.2939146041051599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H13">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I13">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J13">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>2193.178194254202</v>
+        <v>3525.917204019051</v>
       </c>
       <c r="R13">
-        <v>2193.178194254202</v>
+        <v>31733.25483617146</v>
       </c>
       <c r="S13">
-        <v>0.2373176099333616</v>
+        <v>0.1823804548013476</v>
       </c>
       <c r="T13">
-        <v>0.2373176099333616</v>
+        <v>0.1900338008795167</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H14">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I14">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J14">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>125.0919261739071</v>
+        <v>207.4153937579645</v>
       </c>
       <c r="R14">
-        <v>125.0919261739071</v>
+        <v>1866.73854382168</v>
       </c>
       <c r="S14">
-        <v>0.01353584356224513</v>
+        <v>0.01072870168455996</v>
       </c>
       <c r="T14">
-        <v>0.01353584356224513</v>
+        <v>0.01117891696147003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H15">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I15">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J15">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>229.1520576866339</v>
+        <v>407.6932168623431</v>
       </c>
       <c r="R15">
-        <v>229.1520576866339</v>
+        <v>3669.238951761088</v>
       </c>
       <c r="S15">
-        <v>0.02479589610364355</v>
+        <v>0.02108820769416366</v>
       </c>
       <c r="T15">
-        <v>0.02479589610364355</v>
+        <v>0.02197314545697129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H16">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I16">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J16">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>550.6823581134969</v>
+        <v>865.4695188219467</v>
       </c>
       <c r="R16">
-        <v>550.6823581134969</v>
+        <v>5192.817112931681</v>
       </c>
       <c r="S16">
-        <v>0.05958778060184163</v>
+        <v>0.04476699687659406</v>
       </c>
       <c r="T16">
-        <v>0.05958778060184163</v>
+        <v>0.03109705507163355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H17">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I17">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J17">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>25.36822965595823</v>
+        <v>3886.948291006961</v>
       </c>
       <c r="R17">
-        <v>25.36822965595823</v>
+        <v>34982.53461906266</v>
       </c>
       <c r="S17">
-        <v>0.002745024387879191</v>
+        <v>0.2010550322324983</v>
       </c>
       <c r="T17">
-        <v>0.002745024387879191</v>
+        <v>0.2094920313841276</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H18">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I18">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J18">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>38.5513862314014</v>
+        <v>2513.150239033076</v>
       </c>
       <c r="R18">
-        <v>38.5513862314014</v>
+        <v>22618.35215129768</v>
       </c>
       <c r="S18">
-        <v>0.004171536477985641</v>
+        <v>0.1299943977857772</v>
       </c>
       <c r="T18">
-        <v>0.004171536477985641</v>
+        <v>0.1354494347060513</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H19">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I19">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J19">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>2.198848763403896</v>
+        <v>147.8384250792383</v>
       </c>
       <c r="R19">
-        <v>2.198848763403896</v>
+        <v>1330.545825713145</v>
       </c>
       <c r="S19">
-        <v>0.0002379312061842693</v>
+        <v>0.007647042639666236</v>
       </c>
       <c r="T19">
-        <v>0.0002379312061842693</v>
+        <v>0.007967940314033964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H20">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I20">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J20">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>4.028003517790707</v>
+        <v>290.5894398886813</v>
       </c>
       <c r="R20">
-        <v>4.028003517790707</v>
+        <v>2615.304958998132</v>
       </c>
       <c r="S20">
-        <v>0.0004358588691742514</v>
+        <v>0.01503093553840585</v>
       </c>
       <c r="T20">
-        <v>0.0004358588691742514</v>
+        <v>0.01566168816855677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H21">
+        <v>2445.609039</v>
+      </c>
+      <c r="I21">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J21">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.756715</v>
+      </c>
+      <c r="N21">
+        <v>1.51343</v>
+      </c>
+      <c r="O21">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P21">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q21">
+        <v>616.876347982295</v>
+      </c>
+      <c r="R21">
+        <v>3701.25808789377</v>
+      </c>
+      <c r="S21">
+        <v>0.03190834679071989</v>
+      </c>
+      <c r="T21">
+        <v>0.02216489125082652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H22">
+        <v>165.556469</v>
+      </c>
+      <c r="I22">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J22">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N22">
+        <v>14.304222</v>
+      </c>
+      <c r="O22">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P22">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q22">
+        <v>394.692747685353</v>
+      </c>
+      <c r="R22">
+        <v>2368.156486112118</v>
+      </c>
+      <c r="S22">
+        <v>0.02041574962327428</v>
+      </c>
+      <c r="T22">
+        <v>0.01418164573589203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H23">
+        <v>165.556469</v>
+      </c>
+      <c r="I23">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J23">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P23">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q23">
+        <v>255.1930457847941</v>
+      </c>
+      <c r="R23">
+        <v>1531.158274708764</v>
+      </c>
+      <c r="S23">
+        <v>0.01320003308623364</v>
+      </c>
+      <c r="T23">
+        <v>0.009169302934515323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H24">
+        <v>165.556469</v>
+      </c>
+      <c r="I24">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J24">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.544055</v>
+      </c>
+      <c r="O24">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P24">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q24">
+        <v>15.01197079029917</v>
+      </c>
+      <c r="R24">
+        <v>90.071824741795</v>
+      </c>
+      <c r="S24">
+        <v>0.0007765043538397604</v>
+      </c>
+      <c r="T24">
+        <v>0.0005393928639279184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="N21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="O21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="P21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="Q21">
-        <v>9.679819147422949</v>
-      </c>
-      <c r="R21">
-        <v>9.679819147422949</v>
-      </c>
-      <c r="S21">
-        <v>0.001047425854712536</v>
-      </c>
-      <c r="T21">
-        <v>0.001047425854712536</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H25">
+        <v>165.556469</v>
+      </c>
+      <c r="I25">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J25">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.069388</v>
+      </c>
+      <c r="O25">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P25">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q25">
+        <v>29.50735021182867</v>
+      </c>
+      <c r="R25">
+        <v>177.044101270972</v>
+      </c>
+      <c r="S25">
+        <v>0.001526287669342243</v>
+      </c>
+      <c r="T25">
+        <v>0.001060224161105309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H26">
+        <v>165.556469</v>
+      </c>
+      <c r="I26">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J26">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.756715</v>
+      </c>
+      <c r="N26">
+        <v>1.51343</v>
+      </c>
+      <c r="O26">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P26">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q26">
+        <v>62.63953171966751</v>
+      </c>
+      <c r="R26">
+        <v>250.55812687867</v>
+      </c>
+      <c r="S26">
+        <v>0.003240072191869504</v>
+      </c>
+      <c r="T26">
+        <v>0.001500461060103169</v>
       </c>
     </row>
   </sheetData>
